--- a/data/fractionation/test_fract_adjust/230215 Batch 137 Water Yr Summary.xlsx
+++ b/data/fractionation/test_fract_adjust/230215 Batch 137 Water Yr Summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Banfield\WaterYear\SIP\data\fractionation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Banfield\WaterYear\SIP\data\fractionation\test_fract_adjust\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C2D9C7-144A-4BF4-831B-1CC724A8405C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2577169-56F8-4470-A205-E8E813348F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="622" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-21710" windowWidth="38620" windowHeight="21100" tabRatio="622" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="22" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <sheet name="Tube P" sheetId="19" r:id="rId19"/>
     <sheet name="time" sheetId="1" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="191029" iterateCount="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1379,6 +1379,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1386,15 +1395,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1681,10 +1681,10 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1.7245993860000013</c:v>
+                  <c:v>1.7433675389999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7368109790000013</c:v>
+                  <c:v>1.7433675389999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.7433675389999994</c:v>
@@ -3377,10 +3377,10 @@
                   <c:v>1.7103935060000008</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7245993860000013</c:v>
+                  <c:v>1.7433675389999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7368109790000013</c:v>
+                  <c:v>1.7433675389999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.7433675389999994</c:v>
@@ -9761,17 +9761,17 @@
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.45"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7265625" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" customWidth="1"/>
-    <col min="7" max="7" width="18.7265625" customWidth="1"/>
+    <col min="1" max="1" width="11.23046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.69140625" customWidth="1"/>
+    <col min="4" max="4" width="17.23046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.69140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.53515625" customWidth="1"/>
+    <col min="7" max="7" width="18.69140625" customWidth="1"/>
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -10178,9 +10178,9 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -10795,9 +10795,9 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -11412,9 +11412,9 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -12028,9 +12028,9 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -12644,9 +12644,9 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -13260,9 +13260,9 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -13876,9 +13876,9 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -14404,9 +14404,9 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -16151,9 +16151,9 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -16680,9 +16680,9 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -18422,21 +18422,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA4E3B1-5772-4D1F-AF5A-033072A123CA}">
   <dimension ref="A1:AE86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC50" sqref="AC50"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="12.45"/>
   <cols>
-    <col min="1" max="1" width="9.54296875" style="56" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.90625" style="56"/>
-    <col min="5" max="5" width="10.90625" style="56" customWidth="1"/>
-    <col min="6" max="6" width="10.90625" style="56"/>
+    <col min="1" max="1" width="9.53515625" style="56" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.921875" style="56"/>
+    <col min="3" max="3" width="10.4609375" style="56" customWidth="1"/>
+    <col min="4" max="4" width="10.921875" style="56"/>
+    <col min="5" max="5" width="10.921875" style="56" customWidth="1"/>
+    <col min="6" max="6" width="10.921875" style="56"/>
     <col min="7" max="7" width="11" style="56" customWidth="1"/>
-    <col min="8" max="16384" width="10.90625" style="56"/>
+    <col min="8" max="16384" width="10.921875" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="13" thickTop="1">
+    <row r="1" spans="1:31" ht="12.9" thickTop="1">
       <c r="A1" s="62" t="s">
         <v>184</v>
       </c>
@@ -18565,56 +18567,56 @@
       <c r="A2" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="114" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="111" t="s">
+      <c r="C2" s="115"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="114" t="s">
         <v>170</v>
       </c>
-      <c r="F2" s="112"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="114" t="s">
+      <c r="F2" s="115"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="111" t="s">
         <v>172</v>
       </c>
-      <c r="I2" s="115"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="114" t="s">
+      <c r="I2" s="112"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="111" t="s">
         <v>173</v>
       </c>
-      <c r="L2" s="115"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="114" t="s">
+      <c r="L2" s="112"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="111" t="s">
         <v>174</v>
       </c>
-      <c r="O2" s="115"/>
-      <c r="P2" s="116"/>
-      <c r="Q2" s="114" t="s">
+      <c r="O2" s="112"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="111" t="s">
         <v>175</v>
       </c>
-      <c r="R2" s="115"/>
-      <c r="S2" s="116"/>
-      <c r="T2" s="114" t="s">
+      <c r="R2" s="112"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="111" t="s">
         <v>201</v>
       </c>
-      <c r="U2" s="115"/>
-      <c r="V2" s="116"/>
-      <c r="W2" s="114" t="s">
+      <c r="U2" s="112"/>
+      <c r="V2" s="113"/>
+      <c r="W2" s="111" t="s">
         <v>202</v>
       </c>
-      <c r="X2" s="115"/>
-      <c r="Y2" s="116"/>
-      <c r="Z2" s="114" t="s">
+      <c r="X2" s="112"/>
+      <c r="Y2" s="113"/>
+      <c r="Z2" s="111" t="s">
         <v>203</v>
       </c>
-      <c r="AA2" s="115"/>
-      <c r="AB2" s="116"/>
-      <c r="AC2" s="114" t="s">
+      <c r="AA2" s="112"/>
+      <c r="AB2" s="113"/>
+      <c r="AC2" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="115"/>
-      <c r="AE2" s="116"/>
+      <c r="AD2" s="112"/>
+      <c r="AE2" s="113"/>
     </row>
     <row r="3" spans="1:31">
       <c r="A3" s="62" t="s">
@@ -18835,8 +18837,7 @@
         <v>H3</v>
       </c>
       <c r="C5" s="73">
-        <f>'Tube B'!F3</f>
-        <v>1.7245993860000013</v>
+        <v>1.7433675389999994</v>
       </c>
       <c r="D5" s="74">
         <v>-4.1495995905403732E-2</v>
@@ -18950,8 +18951,7 @@
         <v>H4</v>
       </c>
       <c r="C6" s="73">
-        <f>'Tube B'!F4</f>
-        <v>1.7368109790000013</v>
+        <v>1.7433675389999994</v>
       </c>
       <c r="D6" s="74">
         <v>-2.9588960302775188E-2</v>
@@ -21126,7 +21126,7 @@
         <v>0.15221725006537656</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="13" thickBot="1">
+    <row r="25" spans="1:31" ht="12.9" thickBot="1">
       <c r="A25" s="56">
         <v>22</v>
       </c>
@@ -21241,7 +21241,7 @@
         <v>4.2832907202628077E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="13" thickTop="1">
+    <row r="26" spans="1:31" ht="12.9" thickTop="1">
       <c r="B26" s="73"/>
       <c r="C26" s="80" t="s">
         <v>188</v>
@@ -21392,16 +21392,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -21419,19 +21419,19 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="12.45"/>
   <cols>
-    <col min="1" max="1" width="17.90625" customWidth="1"/>
-    <col min="2" max="2" width="8.90625" customWidth="1"/>
-    <col min="3" max="3" width="87.08984375" customWidth="1"/>
+    <col min="1" max="1" width="17.921875" customWidth="1"/>
+    <col min="2" max="2" width="8.921875" customWidth="1"/>
+    <col min="3" max="3" width="87.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="50">
+    <row r="2" spans="1:6" ht="49.75">
       <c r="E2" s="2" t="s">
         <v>32</v>
       </c>
@@ -21439,7 +21439,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16">
+    <row r="3" spans="1:6" ht="15.9">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -21456,7 +21456,7 @@
         <v>2040000000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16">
+    <row r="4" spans="1:6" ht="15.9">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -21473,7 +21473,7 @@
         <v>1550000000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.5">
+    <row r="5" spans="1:6" ht="15.45">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -21491,7 +21491,7 @@
         <v>1330000000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.5">
+    <row r="6" spans="1:6" ht="15.45">
       <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
@@ -21508,7 +21508,7 @@
         <v>1220000000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.5">
+    <row r="7" spans="1:6" ht="15.45">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
@@ -21526,7 +21526,7 @@
         <v>1170000000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.5">
+    <row r="8" spans="1:6" ht="15.45">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -21543,7 +21543,7 @@
         <v>1140000000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.5">
+    <row r="9" spans="1:6" ht="15.45">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -21561,7 +21561,7 @@
         <v>1120000000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16">
+    <row r="10" spans="1:6" ht="15.9">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -21579,7 +21579,7 @@
         <v>1120000000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.5">
+    <row r="11" spans="1:6" ht="15.45">
       <c r="A11" s="3" t="s">
         <v>37</v>
       </c>
@@ -21590,7 +21590,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16">
+    <row r="12" spans="1:6" ht="15.9">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -21601,7 +21601,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16">
+    <row r="13" spans="1:6" ht="15.9">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -21612,7 +21612,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16">
+    <row r="14" spans="1:6" ht="15.9">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -21623,7 +21623,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16">
+    <row r="15" spans="1:6" ht="15.9">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -21635,7 +21635,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16">
+    <row r="16" spans="1:6" ht="15.9">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -21646,11 +21646,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.5">
+    <row r="17" spans="1:4" ht="15.45">
       <c r="A17" s="3"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:4" ht="15.5">
+    <row r="18" spans="1:4" ht="15.45">
       <c r="C18" s="11" t="s">
         <v>38</v>
       </c>
@@ -21659,7 +21659,7 @@
         <v>19.166399999999982</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.5">
+    <row r="19" spans="1:4" ht="15.45">
       <c r="C19" s="11" t="s">
         <v>2</v>
       </c>
@@ -21668,7 +21668,7 @@
         <v>2.1295999999999977</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.5">
+    <row r="20" spans="1:4" ht="15.45">
       <c r="C20" s="11" t="s">
         <v>3</v>
       </c>
@@ -21677,126 +21677,126 @@
         <v>108.31629022640612</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.5">
+    <row r="22" spans="1:4" ht="15.45">
       <c r="C22" s="11"/>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="1:4" ht="15.5">
+    <row r="23" spans="1:4" ht="15.45">
       <c r="C23" s="11"/>
       <c r="D23" s="12"/>
     </row>
-    <row r="27" spans="1:4" ht="13">
+    <row r="27" spans="1:4">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="15.5">
+    <row r="28" spans="1:4" ht="15.45">
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="1:4" ht="15.5">
+    <row r="29" spans="1:4" ht="15.45">
       <c r="A29" s="3"/>
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="1:4" ht="15.5">
+    <row r="30" spans="1:4" ht="15.45">
       <c r="A30" s="3"/>
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="1:4" ht="15.5">
+    <row r="31" spans="1:4" ht="15.45">
       <c r="A31" s="3"/>
       <c r="B31" s="7"/>
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="1:4" ht="15.5">
+    <row r="32" spans="1:4" ht="15.45">
       <c r="A32" s="3"/>
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="1:12" ht="15.5">
+    <row r="33" spans="1:12" ht="15.45">
       <c r="A33" s="3"/>
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="1:12" ht="15.5">
+    <row r="34" spans="1:12" ht="15.45">
       <c r="A34" s="3"/>
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="1:12" ht="15.5">
+    <row r="35" spans="1:12" ht="15.45">
       <c r="A35" s="3"/>
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="1:12" ht="15.5">
+    <row r="36" spans="1:12" ht="15.45">
       <c r="A36" s="3"/>
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="1:12" ht="15.5">
+    <row r="37" spans="1:12" ht="15.45">
       <c r="A37" s="3"/>
       <c r="B37" s="10"/>
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="1:12" ht="15.5">
+    <row r="38" spans="1:12" ht="15.45">
       <c r="A38" s="3"/>
       <c r="C38" s="4"/>
     </row>
-    <row r="39" spans="1:12" ht="15.5">
+    <row r="39" spans="1:12" ht="15.45">
       <c r="A39" s="3"/>
       <c r="C39" s="4"/>
     </row>
-    <row r="40" spans="1:12" s="18" customFormat="1" ht="15.5">
+    <row r="40" spans="1:12" s="18" customFormat="1" ht="15.45">
       <c r="A40" s="17"/>
       <c r="C40" s="19"/>
     </row>
-    <row r="41" spans="1:12" ht="15.5">
+    <row r="41" spans="1:12" ht="15.45">
       <c r="A41" s="3"/>
       <c r="C41" s="4"/>
     </row>
-    <row r="42" spans="1:12" ht="15.5">
+    <row r="42" spans="1:12" ht="15.45">
       <c r="A42" s="3"/>
       <c r="C42" s="4"/>
     </row>
-    <row r="43" spans="1:12" ht="15.5">
+    <row r="43" spans="1:12" ht="15.45">
       <c r="A43" s="3"/>
       <c r="C43" s="4"/>
     </row>
-    <row r="44" spans="1:12" ht="15.5">
+    <row r="44" spans="1:12" ht="15.45">
       <c r="A44" s="3"/>
       <c r="C44" s="4"/>
     </row>
-    <row r="45" spans="1:12" ht="15.5">
+    <row r="45" spans="1:12" ht="15.45">
       <c r="A45" s="3"/>
       <c r="C45" s="4"/>
     </row>
-    <row r="46" spans="1:12" ht="15.5">
+    <row r="46" spans="1:12" ht="15.45">
       <c r="A46" s="3"/>
       <c r="C46" s="11"/>
     </row>
-    <row r="47" spans="1:12" ht="15.5">
+    <row r="47" spans="1:12" ht="15.45">
       <c r="C47" s="11"/>
       <c r="K47" s="20"/>
       <c r="L47" s="20"/>
     </row>
-    <row r="48" spans="1:12" ht="15.5">
+    <row r="48" spans="1:12" ht="15.45">
       <c r="C48" s="11"/>
     </row>
-    <row r="49" spans="3:12" s="20" customFormat="1" ht="15.5">
+    <row r="49" spans="3:12" s="20" customFormat="1" ht="15.45">
       <c r="C49" s="21"/>
       <c r="K49"/>
       <c r="L49"/>
     </row>
-    <row r="50" spans="3:12" ht="15.5">
+    <row r="50" spans="3:12" ht="15.45">
       <c r="C50" s="11"/>
     </row>
     <row r="51" spans="3:12">
       <c r="D51" s="13"/>
     </row>
-    <row r="52" spans="3:12" ht="15.5">
+    <row r="52" spans="3:12" ht="15.45">
       <c r="C52" s="11"/>
       <c r="D52" s="14"/>
     </row>
-    <row r="53" spans="3:12" ht="15.5">
+    <row r="53" spans="3:12" ht="15.45">
       <c r="C53" s="11"/>
       <c r="D53" s="14"/>
     </row>
-    <row r="54" spans="3:12" ht="15.5">
+    <row r="54" spans="3:12" ht="15.45">
       <c r="C54" s="11"/>
       <c r="D54" s="14"/>
     </row>
-    <row r="55" spans="3:12" ht="15.5">
+    <row r="55" spans="3:12" ht="15.45">
       <c r="C55" s="11"/>
     </row>
     <row r="56" spans="3:12">
@@ -21822,15 +21822,15 @@
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <cols>
-    <col min="1" max="1" width="11.36328125" customWidth="1"/>
+    <col min="1" max="1" width="11.3828125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="12" width="11.36328125" customWidth="1"/>
-    <col min="13" max="13" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="11.3828125" customWidth="1"/>
+    <col min="13" max="13" width="12.23046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13">
+    <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>54</v>
       </c>
@@ -21899,7 +21899,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="13">
+    <row r="12" spans="1:10">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
@@ -21992,7 +21992,7 @@
         <v>5.2739964735600093</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="13">
+    <row r="19" spans="1:12">
       <c r="A19" s="31">
         <v>4.3</v>
       </c>
@@ -22234,7 +22234,7 @@
       <c r="B27" s="16"/>
       <c r="C27" s="30"/>
     </row>
-    <row r="28" spans="1:12" ht="39.5" thickBot="1">
+    <row r="28" spans="1:12" ht="37.75" thickBot="1">
       <c r="A28" s="98" t="s">
         <v>43</v>
       </c>
@@ -22272,7 +22272,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="14">
+    <row r="29" spans="1:12" ht="14.15">
       <c r="A29" s="38" t="s">
         <v>138</v>
       </c>
@@ -22317,7 +22317,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="14">
+    <row r="30" spans="1:12" ht="14.15">
       <c r="A30" t="s">
         <v>139</v>
       </c>
@@ -22362,7 +22362,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="14">
+    <row r="31" spans="1:12" ht="14.15">
       <c r="A31" s="38" t="s">
         <v>140</v>
       </c>
@@ -22407,7 +22407,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="14">
+    <row r="32" spans="1:12" ht="14.15">
       <c r="A32" t="s">
         <v>141</v>
       </c>
@@ -22452,7 +22452,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="14">
+    <row r="33" spans="1:12" ht="14.15">
       <c r="A33" s="38" t="s">
         <v>142</v>
       </c>
@@ -22542,7 +22542,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="14">
+    <row r="35" spans="1:12" ht="14.15">
       <c r="A35" s="38" t="s">
         <v>144</v>
       </c>
@@ -22587,7 +22587,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="14">
+    <row r="36" spans="1:12" ht="14.15">
       <c r="A36" t="s">
         <v>145</v>
       </c>
@@ -22632,7 +22632,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="14">
+    <row r="37" spans="1:12" ht="14.15">
       <c r="A37" s="38" t="s">
         <v>149</v>
       </c>
@@ -22677,7 +22677,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="14">
+    <row r="38" spans="1:12" ht="14.15">
       <c r="A38" t="s">
         <v>150</v>
       </c>
@@ -22722,7 +22722,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="14.5">
+    <row r="39" spans="1:12" ht="14.6">
       <c r="A39" s="38" t="s">
         <v>151</v>
       </c>
@@ -22767,7 +22767,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="14">
+    <row r="40" spans="1:12" ht="14.15">
       <c r="A40" t="s">
         <v>152</v>
       </c>
@@ -22812,7 +22812,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="14">
+    <row r="41" spans="1:12" ht="14.15">
       <c r="A41" s="38" t="s">
         <v>163</v>
       </c>
@@ -22849,7 +22849,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="14">
+    <row r="42" spans="1:12" ht="14.15">
       <c r="A42" t="s">
         <v>164</v>
       </c>
@@ -22885,7 +22885,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="14">
+    <row r="43" spans="1:12" ht="14.15">
       <c r="A43" s="38" t="s">
         <v>165</v>
       </c>
@@ -22922,7 +22922,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="14">
+    <row r="44" spans="1:12" ht="14.15">
       <c r="A44" t="s">
         <v>166</v>
       </c>
@@ -22958,7 +22958,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="14">
+    <row r="45" spans="1:12" ht="14.15">
       <c r="A45" s="45" t="s">
         <v>33</v>
       </c>
@@ -23025,9 +23025,9 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -23642,9 +23642,9 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -24259,9 +24259,9 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -24876,9 +24876,9 @@
       <selection activeCell="A2" sqref="A2:G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -25405,9 +25405,9 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -26022,9 +26022,9 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
